--- a/Domain Model.xlsx
+++ b/Domain Model.xlsx
@@ -57,9 +57,6 @@
     <t>Followee ID</t>
   </si>
   <si>
-    <t>Photo-Hashtag (joint table)</t>
-  </si>
-  <si>
     <t>Follower-Followee</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>b-eng@kellogg.northwestern.edu</t>
+  </si>
+  <si>
+    <t>Photo-Hashtag</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -146,7 +146,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F7" sqref="F7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,12 +472,12 @@
     <col min="7" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -488,37 +488,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
@@ -528,17 +525,8 @@
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -548,17 +536,8 @@
       <c r="D9" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -568,22 +547,13 @@
       <c r="D10" s="4">
         <v>0.4375</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
@@ -591,20 +561,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -615,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -626,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -642,10 +612,12 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -653,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -664,9 +636,50 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
         <v>1</v>
       </c>
     </row>
